--- a/outputs/c/_kitchenRoll_both.xlsx
+++ b/outputs/c/_kitchenRoll_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="216">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>12M 10S</t>
   </si>
   <si>
-    <t>trashb</t>
-  </si>
-  <si>
     <t>sneeze</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>1H 18M 52S</t>
   </si>
   <si>
-    <t>trashB</t>
-  </si>
-  <si>
     <t>16M 24S</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>1H 8M 50S</t>
   </si>
   <si>
-    <t>stove</t>
-  </si>
-  <si>
     <t>1H 27M 24S</t>
   </si>
   <si>
@@ -666,10 +654,19 @@
     <t>standard + stand</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
+  </si>
+  <si>
+    <t>floor</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1476,7 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I18" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,22 +1510,22 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
@@ -1537,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="T1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="U1" t="s">
         <v>2</v>
@@ -1555,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="Z1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1566,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -1578,19 +1575,19 @@
         <v>862</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1602,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1617,13 +1614,13 @@
         <v>862</v>
       </c>
       <c r="X2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" t="s">
-        <v>13</v>
-      </c>
       <c r="Z2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1634,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>89</v>
@@ -1646,25 +1643,25 @@
         <v>730</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
       <c r="M3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1676,7 +1673,7 @@
         <v>8</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1691,13 +1688,13 @@
         <v>730</v>
       </c>
       <c r="X3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" t="s">
-        <v>17</v>
-      </c>
       <c r="Z3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1708,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>379</v>
@@ -1720,22 +1717,22 @@
         <v>2874</v>
       </c>
       <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
       <c r="M4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1747,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1762,13 +1759,13 @@
         <v>1444</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1779,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>223</v>
@@ -1791,25 +1788,25 @@
         <v>1764</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1821,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1836,13 +1833,13 @@
         <v>178</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1853,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>394</v>
@@ -1865,22 +1862,22 @@
         <v>3428</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1892,7 +1889,7 @@
         <v>14</v>
       </c>
       <c r="S6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1907,13 +1904,13 @@
         <v>3292</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Z6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1924,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>474</v>
@@ -1936,22 +1933,22 @@
         <v>2536</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1963,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1978,13 +1975,13 @@
         <v>522</v>
       </c>
       <c r="X7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Z7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1995,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>115</v>
@@ -2007,22 +2004,22 @@
         <v>870</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2034,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="S8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2049,13 +2046,13 @@
         <v>278</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Z8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -2066,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>159</v>
@@ -2078,19 +2075,19 @@
         <v>1108</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2102,7 +2099,7 @@
         <v>20</v>
       </c>
       <c r="S9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2117,13 +2114,13 @@
         <v>306</v>
       </c>
       <c r="X9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -2134,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>52</v>
@@ -2146,19 +2143,19 @@
         <v>306</v>
       </c>
       <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
       <c r="M10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2170,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2185,13 +2182,13 @@
         <v>782</v>
       </c>
       <c r="X10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2202,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>34</v>
@@ -2214,19 +2211,19 @@
         <v>782</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2238,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2253,13 +2250,13 @@
         <v>1508</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Z11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2270,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>155</v>
@@ -2282,25 +2279,25 @@
         <v>4732</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2312,7 +2309,7 @@
         <v>8</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2327,13 +2324,13 @@
         <v>994</v>
       </c>
       <c r="X12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -2344,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>104</v>
@@ -2356,22 +2353,22 @@
         <v>994</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2383,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -2398,13 +2395,13 @@
         <v>890</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Z13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2415,7 +2412,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>435</v>
@@ -2427,19 +2424,19 @@
         <v>2802</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2451,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2466,13 +2463,13 @@
         <v>972</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Z14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2483,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>489</v>
@@ -2495,22 +2492,22 @@
         <v>4002</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2522,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2537,13 +2534,13 @@
         <v>736</v>
       </c>
       <c r="X15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2554,7 +2551,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>82</v>
@@ -2566,19 +2563,19 @@
         <v>1078</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2590,7 +2587,7 @@
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2605,13 +2602,13 @@
         <v>438</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Z16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2622,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>830</v>
@@ -2634,22 +2631,22 @@
         <v>6630</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2661,7 +2658,7 @@
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2676,13 +2673,13 @@
         <v>1632</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Z17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2693,7 +2690,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>121</v>
@@ -2705,22 +2702,22 @@
         <v>736</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2732,7 +2729,7 @@
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2747,13 +2744,13 @@
         <v>140</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Z18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2764,7 +2761,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>85</v>
@@ -2776,22 +2773,22 @@
         <v>510</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2805,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>272</v>
@@ -2817,22 +2814,22 @@
         <v>3738</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2846,7 +2843,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>342</v>
@@ -2858,22 +2855,22 @@
         <v>4130</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2887,7 +2884,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>524</v>
@@ -2899,22 +2896,22 @@
         <v>5260</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2925,25 +2922,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2954,7 +2951,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>185</v>
@@ -2966,10 +2963,10 @@
         <v>1412</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2980,7 +2977,7 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>206</v>
@@ -2992,10 +2989,10 @@
         <v>1444</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -3006,7 +3003,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>220</v>
@@ -3018,10 +3015,10 @@
         <v>1488</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -3032,7 +3029,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>274</v>
@@ -3044,10 +3041,10 @@
         <v>1880</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -3058,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>370</v>
@@ -3070,10 +3067,10 @@
         <v>2812</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -3084,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>377</v>
@@ -3096,10 +3093,10 @@
         <v>2854</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3110,7 +3107,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>388</v>
@@ -3122,10 +3119,10 @@
         <v>2952</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3136,7 +3133,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>404</v>
@@ -3148,10 +3145,10 @@
         <v>2980</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3162,7 +3159,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>410</v>
@@ -3174,10 +3171,10 @@
         <v>3080</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3188,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>434</v>
@@ -3200,10 +3197,10 @@
         <v>3222</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3214,7 +3211,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>25</v>
@@ -3226,10 +3223,10 @@
         <v>178</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3240,7 +3237,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>182</v>
@@ -3252,10 +3249,10 @@
         <v>1456</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,7 +3263,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>198</v>
@@ -3278,10 +3275,10 @@
         <v>1568</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3292,7 +3289,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>241</v>
@@ -3304,10 +3301,10 @@
         <v>1948</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,7 +3315,7 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>384</v>
@@ -3330,10 +3327,10 @@
         <v>3292</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3344,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>506</v>
@@ -3356,10 +3353,10 @@
         <v>4110</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3370,7 +3367,7 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>98</v>
@@ -3382,10 +3379,10 @@
         <v>522</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3396,7 +3393,7 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>171</v>
@@ -3408,10 +3405,10 @@
         <v>888</v>
       </c>
       <c r="G41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3422,7 +3419,7 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>485</v>
@@ -3434,10 +3431,10 @@
         <v>2700</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3448,7 +3445,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>39</v>
@@ -3460,10 +3457,10 @@
         <v>278</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3474,7 +3471,7 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>40</v>
@@ -3486,10 +3483,10 @@
         <v>278</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3500,7 +3497,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>64</v>
@@ -3512,10 +3509,10 @@
         <v>434</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3526,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -3538,10 +3535,10 @@
         <v>836</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3552,7 +3549,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>109</v>
@@ -3564,10 +3561,10 @@
         <v>848</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3578,7 +3575,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>132</v>
@@ -3590,10 +3587,10 @@
         <v>926</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3604,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>135</v>
@@ -3616,10 +3613,10 @@
         <v>962</v>
       </c>
       <c r="G49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3630,7 +3627,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>140</v>
@@ -3642,10 +3639,10 @@
         <v>968</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3656,7 +3653,7 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>141</v>
@@ -3668,10 +3665,10 @@
         <v>976</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>151</v>
@@ -3694,10 +3691,10 @@
         <v>1062</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3708,7 +3705,7 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>163</v>
@@ -3720,10 +3717,10 @@
         <v>1122</v>
       </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3734,7 +3731,7 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>460</v>
@@ -3746,10 +3743,10 @@
         <v>3038</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3760,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D55">
         <v>38</v>
@@ -3772,10 +3769,10 @@
         <v>1508</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D56">
         <v>178</v>
@@ -3798,10 +3795,10 @@
         <v>5254</v>
       </c>
       <c r="G56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3812,7 +3809,7 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D57">
         <v>133</v>
@@ -3824,10 +3821,10 @@
         <v>890</v>
       </c>
       <c r="G57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3838,7 +3835,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D58">
         <v>159</v>
@@ -3850,10 +3847,10 @@
         <v>1036</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3864,7 +3861,7 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D59">
         <v>163</v>
@@ -3876,10 +3873,10 @@
         <v>1050</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3890,7 +3887,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D60">
         <v>257</v>
@@ -3902,10 +3899,10 @@
         <v>1464</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3916,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D61">
         <v>260</v>
@@ -3928,10 +3925,10 @@
         <v>1484</v>
       </c>
       <c r="G61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3942,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D62">
         <v>277</v>
@@ -3954,10 +3951,10 @@
         <v>1612</v>
       </c>
       <c r="G62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3968,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D63">
         <v>297</v>
@@ -3980,10 +3977,10 @@
         <v>1692</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H63" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3994,7 +3991,7 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D64">
         <v>338</v>
@@ -4006,10 +4003,10 @@
         <v>2042</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H64" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4020,7 +4017,7 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D65">
         <v>442</v>
@@ -4032,10 +4029,10 @@
         <v>2870</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H65" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4046,7 +4043,7 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D66">
         <v>443</v>
@@ -4058,10 +4055,10 @@
         <v>2904</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,7 +4069,7 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>72</v>
@@ -4084,10 +4081,10 @@
         <v>972</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H67" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4098,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D68">
         <v>122</v>
@@ -4110,10 +4107,10 @@
         <v>1296</v>
       </c>
       <c r="G68" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H68" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4124,7 +4121,7 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D69">
         <v>132</v>
@@ -4136,10 +4133,10 @@
         <v>1390</v>
       </c>
       <c r="G69" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H69" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4150,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D70">
         <v>221</v>
@@ -4162,10 +4159,10 @@
         <v>2294</v>
       </c>
       <c r="G70" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H70" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4176,7 +4173,7 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D71">
         <v>248</v>
@@ -4188,10 +4185,10 @@
         <v>2620</v>
       </c>
       <c r="G71" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H71" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4202,7 +4199,7 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D72">
         <v>612</v>
@@ -4214,10 +4211,10 @@
         <v>5306</v>
       </c>
       <c r="G72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H72" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4228,7 +4225,7 @@
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D73">
         <v>641</v>
@@ -4240,10 +4237,10 @@
         <v>5484</v>
       </c>
       <c r="G73" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H73" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4254,7 +4251,7 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D74">
         <v>649</v>
@@ -4266,10 +4263,10 @@
         <v>5552</v>
       </c>
       <c r="G74" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4280,7 +4277,7 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D75">
         <v>757</v>
@@ -4292,10 +4289,10 @@
         <v>6216</v>
       </c>
       <c r="G75" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H75" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4306,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D76">
         <v>801</v>
@@ -4318,10 +4315,10 @@
         <v>6476</v>
       </c>
       <c r="G76" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H76" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4332,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D77">
         <v>815</v>
@@ -4344,10 +4341,10 @@
         <v>6544</v>
       </c>
       <c r="G77" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H77" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4358,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D78">
         <v>819</v>
@@ -4370,10 +4367,10 @@
         <v>6584</v>
       </c>
       <c r="G78" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H78" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,7 +4381,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D79">
         <v>416</v>
@@ -4396,10 +4393,10 @@
         <v>3438</v>
       </c>
       <c r="G79" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H79" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4410,7 +4407,7 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D80">
         <v>75</v>
@@ -4422,10 +4419,10 @@
         <v>438</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H80" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,7 +4433,7 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D81">
         <v>20</v>
@@ -4448,10 +4445,10 @@
         <v>1632</v>
       </c>
       <c r="G81" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H81" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4462,7 +4459,7 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D82">
         <v>28</v>
@@ -4474,10 +4471,10 @@
         <v>1692</v>
       </c>
       <c r="G82" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H82" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4488,7 +4485,7 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D83">
         <v>36</v>
@@ -4500,10 +4497,10 @@
         <v>1740</v>
       </c>
       <c r="G83" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H83" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4514,7 +4511,7 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D84">
         <v>59</v>
@@ -4526,10 +4523,10 @@
         <v>2030</v>
       </c>
       <c r="G84" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H84" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4540,7 +4537,7 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D85">
         <v>75</v>
@@ -4552,10 +4549,10 @@
         <v>2214</v>
       </c>
       <c r="G85" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H85" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4566,7 +4563,7 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D86">
         <v>121</v>
@@ -4578,10 +4575,10 @@
         <v>2476</v>
       </c>
       <c r="G86" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H86" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4592,7 +4589,7 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D87">
         <v>266</v>
@@ -4604,10 +4601,10 @@
         <v>3648</v>
       </c>
       <c r="G87" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H87" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4618,7 +4615,7 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D88">
         <v>313</v>
@@ -4630,10 +4627,10 @@
         <v>4276</v>
       </c>
       <c r="G88" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H88" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4644,7 +4641,7 @@
         <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D89">
         <v>7</v>
@@ -4656,10 +4653,10 @@
         <v>140</v>
       </c>
       <c r="G89" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H89" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4670,7 +4667,7 @@
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D90">
         <v>12</v>
@@ -4682,10 +4679,10 @@
         <v>174</v>
       </c>
       <c r="G90" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H90" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4696,7 +4693,7 @@
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D91">
         <v>274</v>
@@ -4708,10 +4705,10 @@
         <v>3568</v>
       </c>
       <c r="G91" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H91" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4722,7 +4719,7 @@
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D92">
         <v>298</v>
@@ -4734,10 +4731,10 @@
         <v>3816</v>
       </c>
       <c r="G92" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H92" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4748,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D93">
         <v>310</v>
@@ -4760,10 +4757,10 @@
         <v>3908</v>
       </c>
       <c r="G93" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H93" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4774,7 +4771,7 @@
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D94">
         <v>318</v>
@@ -4786,10 +4783,10 @@
         <v>3976</v>
       </c>
       <c r="G94" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H94" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4800,7 +4797,7 @@
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D95">
         <v>332</v>
@@ -4812,10 +4809,10 @@
         <v>4058</v>
       </c>
       <c r="G95" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H95" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4826,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D96">
         <v>344</v>
@@ -4838,10 +4835,10 @@
         <v>4138</v>
       </c>
       <c r="G96" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H96" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4852,7 +4849,7 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D97">
         <v>349</v>
@@ -4864,10 +4861,10 @@
         <v>4146</v>
       </c>
       <c r="G97" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H97" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4878,7 +4875,7 @@
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D98">
         <v>395</v>
@@ -4890,10 +4887,10 @@
         <v>4452</v>
       </c>
       <c r="G98" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H98" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4904,7 +4901,7 @@
         <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D99">
         <v>428</v>
@@ -4916,10 +4913,10 @@
         <v>4696</v>
       </c>
       <c r="G99" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H99" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
